--- a/src/test/resources/data/TestCasesBiz.xlsx
+++ b/src/test/resources/data/TestCasesBiz.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hally/CucumberBiz/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7550FB95-ED98-4748-97F4-1B40878DC35A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4962FD03-29F7-6043-A94D-2F443D4BD87B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="2320" windowWidth="28040" windowHeight="16260" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}"/>
+    <workbookView windowHeight="16260" windowWidth="28040" xWindow="-32700" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}" yWindow="8040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Valisating Create Order Heasers</t>
-  </si>
-  <si>
-    <t>TEC-2011</t>
   </si>
   <si>
     <t xml:space="preserve">1.User Navigates to WebOrder App 
@@ -72,18 +66,31 @@
 Password: test</t>
   </si>
   <si>
+    <t>Validating Create Order Headers</t>
+  </si>
+  <si>
+    <t>TEC-2010</t>
+  </si>
+  <si>
     <t>Product Information
-Product:*
+Product:*      MyMoney
 Quantity:*
 Price per unit:
 Discount:
 Total:</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -117,20 +124,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -147,10 +154,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -185,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -237,7 +244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -348,21 +355,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,7 +386,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -431,21 +438,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="132">
+      <selection activeCell="C1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -470,28 +482,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="128" r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/TestCasesBiz.xlsx
+++ b/src/test/resources/data/TestCasesBiz.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hally/CucumberBiz/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4962FD03-29F7-6043-A94D-2F443D4BD87B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5663677-B6E1-0445-948C-7481925E7739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16260" windowWidth="28040" xWindow="-32700" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}" yWindow="8040"/>
+    <workbookView xWindow="-38320" yWindow="-560" windowWidth="28820" windowHeight="16260" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -72,25 +73,36 @@
     <t>TEC-2010</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer_id </t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
     <t>Product Information
-Product:*      MyMoney
+Product:*
 Quantity:*
 Price per unit:
 Discount:
 Total:</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -124,20 +136,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -154,10 +166,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -192,7 +204,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -244,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -355,21 +367,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -386,7 +398,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -438,25 +450,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="132">
-      <selection activeCell="C1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="32.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -482,7 +494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="128" r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -496,16 +508,46 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC177410-FEE6-2848-B832-AFCB1E1F01CC}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/TestCasesBiz.xlsx
+++ b/src/test/resources/data/TestCasesBiz.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hally/CucumberBiz/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5663677-B6E1-0445-948C-7481925E7739}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9C5928A4-4A6D-8542-B2D6-2F50A11A0F29}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46"/>
   <bookViews>
-    <workbookView xWindow="-38320" yWindow="-560" windowWidth="28820" windowHeight="16260" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}"/>
+    <workbookView windowHeight="16260" windowWidth="28820" xWindow="-38320" xr2:uid="{594C2117-B9F5-5C45-A962-B69265828B3F}" yWindow="-560"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>TEC-2010</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t>First Name</t>
@@ -98,11 +95,18 @@
 Discount:
 Total:</t>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -136,20 +140,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -166,10 +170,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -204,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -256,7 +260,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -367,21 +371,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -450,25 +454,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6469AD9-F2BF-5345-955C-45B917F0BD90}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="132">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="32.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -494,7 +498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="128" r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -508,23 +512,23 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC177410-FEE6-2848-B832-AFCB1E1F01CC}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC177410-FEE6-2848-B832-AFCB1E1F01CC}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,22 +536,22 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/data/TestCasesBiz.xlsx
+++ b/src/test/resources/data/TestCasesBiz.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Test Case Name</t>
   </si>

--- a/src/test/resources/data/TestCasesBiz.xlsx
+++ b/src/test/resources/data/TestCasesBiz.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Test Case Name</t>
   </si>
